--- a/results/correct models/R4-computer-game1/attributes_equality_check.xlsx
+++ b/results/correct models/R4-computer-game1/attributes_equality_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,4509 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a planet has a murder site</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 is a simple assertion that a planet has a murder site. 
+Statement 2, on the other hand, describes a player's objective in a game, which involves traveling through the universe to investigate various planets in an attempt to determine which one might be the murder site.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply says that there is a murder site on a planet. Statement 2, on the other hand, gives information about a game in which the player's objective is to find the murder site on a planet. So, they are related but provide different pieces of information.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is simply asserting that a planet has a murder site. 
+Statement 2, on the other hand, is describing a goal in a game or scenario where the purpose of moving from planet to planet is to discover if each one was the site of a murder. This implies a process and objective, whereas Statement 1 is simple and declarative.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a planet having a murder site. It is a simple declaration of a fact. The second statement, however, describes an action - the objective of player movement to investigate planets to determine the murder site. It implies a potential course of action, probably in a game's context, and is more complex compared to the first one.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. 
+Statement 1 is simply asserting that a planet has a murder site. It doesn't imply anything about the actions people (or players) should or shouldn't take.
+Statement 2, on the other hand, is implying that there is some sort of game or mission in which the player's objective is to discover which planet was the site of the murder. It assumes that a murder took place on a planet, but it also adds more context and objectives that weren't present in the first statement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a legal move has a speed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is talking about a legal move having a speed, while the second statement discusses the role of luck in determining speed for reaching a destination, presumably in some type of game.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement indicates that a legal move in a certain context has a speed while the second one gives more detailed information about an element dictated by luck in a game involving a wheel's spin and reaching a destination.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+The first statement suggests that a move within a legal framework or a game has a certain speed or pace. It does not provide any context about what kind of move, what game or legal scenario it is referring to.
+The second statement is providing a description of a scenario likely within a game where an element (possibly a player's move or turn) is primarily determined by luck due to the spin of a wheel, which then determines how quickly a player reaches a destination. It is more specific and provides context that the first statement does not.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement describes a legal move having a speed, but doesn't specify what context or game it's referring to. The second statement, meanwhile, explains that in a specific game involving a spinning wheel, the speed at which a player reaches a destination is primarily determined by luck. There is no direct correlation or equivalence between the two statements.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 simply implies that a legal move in a game or sport has a certain speed. Statement 2 implies that in a specific game, the speed at which a player reaches a destination is determined by luck, specifically the spin of a wheel. The two statements may both relate to games, but they suggest different things and are not identical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a legal move in a game having number moves, which seems unclear or incomplete. The second statement describes a specific mechanism for winning a murder mystery style game. The two statements discuss completely different subjects regarding game mechanics.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is referring to the quantity of options for legal moves in a game, while the second statement outlines a particular winning scenario involving a murder hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is about a legal move having a number of moves, which seems to be talking about some rules within a game. The second statement, on the other hand, is explaining a specific way to win a game involving a murder hypothesis, a planet, a perpetrator, a weapon and a server's confirmation. The two statements are completely unrelated.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are expressing two completely different concepts. Statement 1 discusses the number of moves within a legal move while Statement 2 describes a particular way of winning a game. The two statements do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies an action within a game that is bound by rules or regulations determining number of moves. Statement 2 implies a specific method to win a game, which involves making a correct hypothesis about a murder scenario. These two statements could refer to entirely different games or different aspects of a complex game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is a broad assertion about a legal move having number moves, which could apply to many different games. 
+On the other hand, Statement 2 is very specific, detailing the mechanics and theme of a particular type of game - an intergalactic murder mystery that involves spinning a wheel to determine the number of moves players make. It provides more context and specific information compared to Statement 1.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. While they both discuss the concept of "moves" in a game, the second statement provides much more context and detail about the game.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement speaks about a legal move having a number of moves, and it’s a bit confusing due to its unclear construction. The second statement describes the nature of a game and the method players use to decide the number of moves they make.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 refers to a move in a game that is legal and has a certain number of moves. 
+However, Statement 2 is much more specific. It describes a particular kind of game that emulates a board game scenario. In this game, players spin a wheel to determine a randomly selected number of moves through space to various planets. While this may also include "legal moves" within the game, it is a more complex and detailed description than the first statement.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply implies that a legal move in a certain context (presumably a game) involves a number of moves, but provides no specifics about the game or the moves. Statement 2, on the other hand, describes a much more detailed scenario about a specific type of game, its theme, and its mechanics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is talking about a number of moves in a game that are legal, while Statement 2 relates to the structure of a software application supporting a gaming view for each player.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. They seem to be talking about different aspects of a game, with the first referring to number of legal moves a player can make and the second referring to the structure of the application with a separate view for each player.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a move in a game that has a certain number of moves, while the second statement discusses the structure of an application that supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous at all. Statement 1 discusses a move in a game, presumably referring to some form of game strategy or rules. Statement 2, on the other hand, talks about the structure of an application, specifically referring to a client/server structure in the context of a game. They are discussing different aspects of a game's design.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to the rules of a game, while statement 2 refers to the technical structure of a game application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They discuss different topics: the first one refers to a "legal move" in a game, and the second one talks about the overall "strategy" in a game, including asking questions, choosing destinations, and deducing a murder scenario.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a move in a game while the second one describes a strategy that includes several actions in a game.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a "legal move" in a game and mentions something about "number moves", but it doesn't specify which game or what exactly these terms mean within the context. The second statement specifically talks about a game's strategy involving asking questions, selecting destinations, and deducing a scenario. There is no direct correlation or shared meaning between the two statements.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 talks about the number of moves in a legal move, possibly in a game. Statement 2, on the other hand, details specific strategies that can be used in a game, mentioning question selection, planet selection, and scenario deduction. They discuss different aspects of gameplay.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 discusses a characteristic of a move in a game, while statement 2 describes strategies implemented within a game. These two statements convey different information and aspects of game dynamics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They present entirely different concepts - the first one refers to a legal move in a game having a certain number of moves, while the second one defines the objective of a class project to develop a specific online game.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about a certain number of legal moves in a game, although it is not clearly specified. The second statement is about the goal of a class project to implement a specific type of online game.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a legal move in a certain context having a specific number of moves. The second statement is all about the goal of a class project, which is to create a specific online detective game.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are about different subjects and do not convey the same information. The first statement is about a legal move in a game having a certain number of moves, while the second statement is about a class project to develop an internet-based game.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 seems to discuss a rule pertaining to a game while statement 2 describes a class project aiming to create a specific type of game. The implications of each statement are unique to their respective contexts and don't relate directly to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement1 is suggesting that a legal move in a game or situation has a specific number of moves, but it is not specified what this number is. 
+Statement2 is suggesting that a player in a game (likely a space or exploration-themed game) has the ability to enter a planet's atmosphere in a variable number of moves.
+Essentially, the first statement talks about a specific number of moves in a general situation, while the second statement talks about variability in the number of moves within a specific situation.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 talks about a legal move having a certain number of moves, while Statement 2 is talking about a player entering a planet's atmosphere with a different number of moves. The context and subjects of the statements are different.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a legal move in a game having a certain number of moves involved, while the second statement refers to a player being able to enter a planet's atmosphere in a game, taking a variable number of moves to do so. They are two different scenarios.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is referring to a specific legal move having a number of moves, while Statement 2 is referring to the possibility of a player entering a planet's atmosphere in a variety of ways, each requiring a different number of moves. They convey different ideas.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 refers to a single "legal move" having a certain number of moves, perhaps in a game or strategy context. Statement 2, on the other hand, implies the possibility of entering a planet's atmosphere with varying numbers of moves, likely in a space exploration or science fiction context. The subjects and contexts of the two statements are significantly different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They talk about different aspects of a game - the first refers to a legal move having certain number of moves, and the second talks about the winning condition in a game.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 talks about a legal move having a certain number of moves, while Statement 2 discusses a condition for winning a game. They talk about different things.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a specific move in a game that is allowed under the rules and has a certain number of moves. The second statement is describing the condition for winning the game, which is being the first player to accomplish a certain task or goal.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first is discussing a characteristic of a move in a game, specifically its quantity. The second is stating the rule or condition to win the game. They are addressing different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 discusses a characteristic of a legal move in a game, while statement 2 outlines a winning condition for the game. They are addressing different aspects of gameplay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. Statement 1 talks about a legal move having a number of moves, presumably in a game. Statement 2, however, discusses the role of a server in coordinating communication between players and managing the sequence of events in a game. They are discussing different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a legal move in a game whereas the second statement is about the functions of a server in a game.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a possible action within a game having a certain number of moves. The second statement is discussing the role of a server in managing communication and event sequencing within a game.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are referring to different subjects - the first is discussing a specific action within a game, while the second is describing the role of a server in managing gameplay.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to the rules of gameplay while statement 2 refers to the role of a server in managing and coordinating an online game. These are two different aspects of game play.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is about a legal move having a number of moves, potentially referring to a game or set of rules. Statement 2, on the other hand, is referring to the graphical representation of entry points on a game board. There is no direct correlation between the two.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 talks about a legal move in a game having a certain number of moves, while Statement 2 describes how entry points are depicted in the game. The two statements are about different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about the number of moves in a legal move, perhaps in a game. The second statement talks about the graphical depiction of entry points into a planet's atmosphere in a game.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 relates to the count or number of legal moves in a game. Statement 2, on the other hand, addresses the graphical representation of entry points in a game. They communicate different information.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is talking about the quantity of moves in a legal move, while statement 2 is describing how entry points are represented in a game. They are about different topics and imply different things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They involve different ideas related to different kind of situations. The first statement seems to refer to a general situation in games while the second statement explains a specific situation in a particular game involving tokens, planets, and wormholes.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is very vague and seems to refer to a certain number of legal moves in a game. The second statement is more specific and describes a particular move a player can make in a game involving planets, wormholes, and a spinner.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss different concepts - the first one refers to a legal move in a game with an unspecified amount of moves, while the second one discusses specific gameplay mechanics involving tokens, planets, and wormholes.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They discuss different subjects and provide differing information - one is about a legal move in a game, while the other is about a specific action a player can take in a game involving planets and wormholes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They talk about different topics: the first about the number of moves in a gameplay, and the second about the online nature of a game.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is talking about a move in a game having a number of moves, whereas the second statement is describing how a game is played over the Internet.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is discussing a characteristic of a move in a game, presumably chess or a similar game, indicating it has a certain number of moves. The second statement is describing how a game is played, specifically stating it's an online game where players can play each other from different locations.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 talks about the number of legal moves in a game, while Statement 2 explains that the game can be played online from different locations.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 talks about a feature of the game related to legal moves, while statement 2 describes the format of the game being internet-based.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They refer to completely different situations and scenarios. The first discusses the number of moves in a legal move, while the second explains the consequence of a player drawing an incorrect conclusion in a game.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about the number of legal moves in a game, while Statement 2 talks about the consequences of drawing an incorrect conclusion in a game.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a legal move in a game having a certain number of moves. The second statement is about a player losing the game if they make an incorrect conclusion.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing two different ideas. The first one talks about a valid action within a game having number of moves, while the second one is about a player drawing a wrong conclusion, resulting in loss of the game.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is related to the quantity of moves one can make in a game, while statement 2 is about the consequences of a player making an incorrect conclusion in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They talk about two different subjects. The first statement discusses a parameter of a move in a game, while the second statement discusses a strategy to partake in the game.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first one talks about a legal move having number moves, which likely refers to the steps or procedures involved in that particular move. The second statement is about reaching certain suspicious locations quickly for investigation as part of a game, which seems unrelated to the first statement.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 talks about a legal move in a game having a certain number of moves, while Statement 2 discusses part of a game that involves reaching suspicious locations quickly for investigation. They are about completely different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss different aspects of a game's mechanics and strategy. The first one talks about the amount of moves available in a game's legal move, while the second one discusses the strategy of investigating suspicious locations within a game.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 talks about a possible rule or element of a game regarding moves, while statement 2 discusses a strategy or specific aspect of gameplay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They talk about completely different subjects - the first one about a player winning something, and the second one about a certain hypothesis being shared with all players.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about a player having a winner, which seems to pertain to a competition or a game. The second statement is about communicating a murder hypothesis to all players, which suggests a murder mystery game. The two statements suggest different scenarios and don't carry the same information.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a gaming context, implying that a player has achieved a victory. The second statement refers to the sharing of a theory or conjecture about a murder to all players, potentially in a game or investigation context. The two statements could potentially be related in the context of a murder mystery game, but they express different ideas.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different meanings. Statement 1 talks about a player winning in a game, while Statement 2 describes a situation where all players are given a certain hypothesis or information related to a murder. They don't refer to the same situation or action.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They discuss completely different scenarios. The first talks about a player winning in a game, while the second relates to a hypothesis about a murder being communicated to players, probably in a mystery or detective game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is referring to a player having achieved a victory, whereas Statement 2 is discussing the role of a server in coordinating a game.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is talking about a player having a winner, while the second statement describes the role of a server in coordinating communication and the sequence of events in a game.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement seems to be discussing the outcome of a game, whereas the second statement is explaining the role of a server in facilitating a game.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement implies that a player in a game has achieved victory. The second statement, on the other hand, describes the role of a server in facilitating communication and game progression. These two ideas are unrelated.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that there is a player who is victorious in a game, whereas statement 2 explains the role of a server in coordinating communication and events in a game. They are discussing entirely different aspects of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a victory in a game, while the second statement describes how entry points are represented in a game.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. One is about a player having a winner and the other is about a graphical representation in a game.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player winning a game, while the second statement describes a specific graphical representation in a game.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement speaks about a player having a victory or win, while the second statement describes a visual or graphic detail in a game.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that someone has won a game, while Statement 2 describes a specific visual aspect of a game. They communicate different ideas and have different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a player having a winner, which might imply a game or contest of some kind. Statement 2, on the other hand, describes a specific rule of a possibly board game. They are talking about two different concepts.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player having a winner while the second statement provides a detailed explanation of what qualifies as a legal move in a game.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about a player having a winner, which generally means the player has won or has someone who has won on their behalf. Statement 2 describes the specifics of a game move, including how the move is determined and the restrictions on the direction of the move. They relate to different aspects of a game scenario and do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a player having a winner, which could mean either they have won something or they have someone who has won on their behalf. Statement 2 describes the rules of a particular game, providing specific information on what a legal move in the game consists of.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a participant in a game has been successful or victorious, while Statement 2 describes the rules or mechanics of a specific game. They present completely different information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey entirely different messages. The first one talks about a player who seems to have won something, while the second one discusses a hypothesis about a murder scenario in a game.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement implies that a particular player has achieved victory, while the second statement refers to a process of deduction and enquiry within a game, where players are supposed to use their evidence to disprove a hypothesis about a murder scenario.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey completely different ideas. Statement1 seems to suggest that a particular player is victorious or is related to someone victorious, where as Statement2 talks about forming a hypothesis for a murder circumstance in a game, inviting other players to disprove it with evidence.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply suggests someone has won a game or competition. Statement 2 implies a group activity, possibly a murder mystery game, where players attempt to disprove a working theory about a fictional crime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about a player having a winner, presumably in some kind of game or sport. The second statement is about players being able to travel through wormholes, which implies a scenario such as a science fiction game or story. They are not conveying the same idea or scenario.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is talking about a player having a winner which implies some sort of game or competition. The second statement is talking about players being able to travel through worm holes, which implies a game or scenario involving space travel or some type of dimensional navigation.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player having a victory or success. The second statement is about players possibly being able to travel through some strategically placed wormholes. The two statements have different subjects and themes.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are discussing two different topics - one involves winning in a game while the other discusses possible actions for players in potentially a different game context.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies someone has won something in a game or competition, whereas Statement 2 implies that in a game or situation, players have the option of using wormholes as a way to travel or maneuver. The two sentences appear to refer to entirely separate possibilities or scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is referring to a player winning or having a victory. The second statement is laying out a rule or limitation in a game regarding movement of tokens or game pieces. They are discussing different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about a player winning a game. The second statement is about one of the rules in playing a game.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is referring to a player having success or victory in some context, while the second statement explains a rule or restriction in a game, specifically about moving into an occupied cell.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are referring to two different concepts; statement 1 refers to a player having victory, while statement 2 refers to a rule or restriction in a game.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to someone being successful or victorious while statement 2 is explaining a rule or restriction in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the possibility of a player having someone or something that can be called a 'winner'. The second statement is about a hypothetical situation where players are traveling through the universe and are allowed to inquire about the knowledge of their peers. These two statements have different subjects and describe different situations or conditions.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement refers to a player being successful or having a victory while the second statement is about players being allowed to ask for information from each other while navigating through a universe.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is suggesting that a player has won something while the second statement is describing a scenario where players are traveling through the universe and allowed to ask each other questions. The contexts and meanings are entirely different.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement suggests that a player is successful or has achieved victory. The second statement describes a scenario in which players are interacting and sharing information with each other during a journey. They do not carry the same meaning.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests a competitive scenario, possibly a game or sport, whereas Statement 2 depicts a cooperative exploratory scenario, likely a game or adventure of a different kind. The concepts discussed in each are distinct from one another.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a player having a winner which is quite vague and unclear. Statement 2 describes a particular type of game in detail, but does not mention anything about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply states that a player has a winner, while the second statement elaborates on the specific type of game without any mention of a winner.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a player having a victory or someone who has won. The second statement is a detailed description of a specific game and its rules, with no mention of a player winning.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a player being successful or victorious in a game, while Statement 2 describes a specific type of game with a distinct set-up and rules. There is no direct correlation or equivalence between the two statements.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competitive situation where there is a victor. Statement 2, however, describes the specifics of a game but does not necessarily imply there is a winner or victor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They discuss completely different scenarios. The first statement talks about a player having a winner, which seems to be in a game context. The second statement discusses a situation where other players have been informed that a hypothesis was refuted and still need to see the evidence. They carry different meanings and are not related.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player winning a game while the second statement discusses about a refuted hypothesis that needs a piece of evidence.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about a player having a winning status or a victorious position, while Statement 2 is about sharing knowledge and providing proof about a hypothesis that was disproved.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are talking about completely different concepts. The first statement is about a player achieving victory in a game or competition while the second statement deals with proving or disproving a hypothesis or theory.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies a competitive situation where one participant has achieved victory. Statement 2 implies a situation of logical or scientific discussion where a hypothesis has been proven wrong, and there is a need to share evidence of the incorrect hypothesis with others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement simply states that a player has a winner, but does not provide any detail or context. The second statement gives specific conditions and consequences related to a game, including possible actions taken by the player. They express different information and are not interchangeable.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player having a winner, which could mean that the player is being successful in the game. The second statement, on the other hand, is about the conditions or consequences of a player's incorrect hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement indicates that a player in a game has succeeded or won. The second statement describes a specific condition or rule within a game that involves making hypotheses. If a player's hypothesis is incorrect, they face certain consequences within the game (losing the game, inability to make moves, etc.). The two statements are related to game scenarios but do not express the same thought or information.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests that a player was successful or victorious, while Statement 2 describes a condition where a player loses the game under specific circumstances.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player is successful or triumphant in some way. In contrast, Statement 2 offers a specific depiction of one potential rule or condition of a game, where an incorrect hypothesis results in the player's loss and continued participation solely as a refuter. The two statements do not imply the same circumstances or outcomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 implies a player already has a winner, which could be interpreted as someone else has won on their behalf or they own a winning entity. It's quite ambiguous.
+Statement 2 indicates the player who first achieves a particular task or goal will be the winner of the game. This is about a future event and it's clearly stated.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 suggests that a player has achieved a win, while Statement 2 outlines a rule or condition in a game where the first player to accomplish a certain task wins the game.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning.
+Statement1: A player has a winner- This statement is likely referring to some aspect or part of a game where the player can attribute their success to something specific, like a winning tactic or piece.
+Statement2: The first player to accomplish this wins the game- This statement outlines a rule within the game, indicating that the first player to achieve a certain goal or task is the winner of the game. It highlights the condition for winning the game.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement1 implies that a particular player has an advantage or edge in the game. Statement2 describes a specific rule or condition of winning in a game.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. 
+Statement 1 implies that a specific player already has a win or has achieved victory. Meanwhile, Statement 2 implies a rule of the game where the first player to achieve a given goal is declared the winner. It does not necessarily convey that a player has already won, merely the condition under which they would win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a player having a winner, which could potentially mean the player has won a game or has a winning aspect, etc., it's unclear. On the other hand, statement 2 describes a specific game rule or scenario involving a player, tokens, planets and a spinner, quite unrelated to the first sentence.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement implies that a player has won something, while the second statement is explaining a rule or strategy for a game that involves moving tokens between different planets.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement suggests that a player has a winner, which could imply that the player is not the winner themselves but is associated with the winner. However, in the second statement, it provides information about a game scenario where a player can use a wormhole to travel to other planets in a game. This statement has nothing to do with a player having a winner.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has won something or achieved some notable result. Statement 2 relates to the rules of a game, describing a specific scenario in which a player can choose not to spin a spinner and instead use a wormhole to travel to another planet. There is no explicit implication of winning or losing in the second statement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 implies that a player is associated with a winner or has won something, while Statement 2 explains a rule or condition of a game which results in a player losing. They present two completely different ideas.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement states that a player has a winner, but it's not clear what this refers to - it could be a winning card, a winning strategy, etc. The second statement clearly talks about a condition in a game where drawing an incorrect conclusion leads to a loss.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement suggests that a player has someone or something (possibly a game or match) that they have won. The second statement indicates a condition in which a player may lose a game because of drawing an incorrect conclusion. They discuss different aspects of a game or competition.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 implies that a player has won something while Statement 2 implies that if a player commits a mistake, they lose the game. They do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies that a player has succeeded or achieved victory. Statement 2 implies a rule or condition of the game - that an incorrect conclusion leads to loss, which doesn't directly state anything about a specific player's victory or defeat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is about a player having a winner, which implies a game or competition context. Statement 2 is about a solution being communicated to all players, implying a problem-solving context or a collective activity. There is no indication in either statement that they are discussing the same scenario or subject.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement relates to a player having a winner and the second statement is about broadcasting a solution to all players.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player achieving victory in some sort of game or competition. The second statement is referring to a solution, potentially in regard to a problem or challenge, being communicated to a group of players.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement is talking about a player having a winner, which could be referring to a game or competition. The second statement is explaining that a solution is being shared with all players, which could be in reference to a problem or challenge that has been resolved. They are discussing two different subjects.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player has achieved victory in a game or contest, while Statement 2 involves a solution being shared among all players. They refer to different scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a particular player has achieved victory, while the second statement describes the objective of a game. These statements carry different meanings and ideas.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement1 is talking about a player having a winner, while Statement2 is explaining the objective of a game, which involves gathering clues while traveling around the universe.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first one talks about a player having a winner which is likely to mean a game or competition has been won. The second statement instead describes the objective or purpose of a specific game, mentioning gathering clues and traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests a competitive situation where someone has won, while statement 2 describes a particular objective tied to a game, which doesn't necessarily mean someone has won yet. These are different concepts and could be implying different scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 implies a player has emerged victorious or successful in some context. Statement 2 refers to a game or process where luck, specifically through the spin of a wheel, decides a player's speed to a destination. The statements are talking about different concepts and thus, are not equal in meaning.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement implies that a player has won a game or competition, but does not provide any information about the game or circumstances. The second statement describes how luck is a large factor in a player's success due to the spin of the wheel determining speed towards a goal, but does not indicate if anyone has won.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement explains that a player has won something, or has someone to win for them, while the second statement describes a game element that's mostly based on luck, judged by the speed at which a player reaches a destination, which is determined by the spin of a wheel.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. One talks about a player having a winner and the other discusses how a game is primarily based on luck due to the spin of a wheel. They convey different ideas.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has achieved a victory or success. Statement 2, however, discusses how an element of a game or activity is primarily dependent on luck, specifically referencing the speed at which a player reaches a destination determined by the spin of a wheel. These are two very different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a winner, perhaps in a game or sporting event. The second statement refers to the location or status of a player, presumably in the context of a science fiction or space exploration game, once they have entered a planet's atmosphere. They refer to two different concepts and scenarios.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a winner, which seems to refer to a competition or game. The second statement discusses a player entering a planet's atmosphere, which is a completely different context.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. The first statement is about a player having a winner, presumably in a game or competition. The second statement is about a player being considered on a planet as soon as they enter the planet's atmosphere; it's a more science fiction or space exploration context. The topics and meanings are completely different.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss two completely different subjects and have no shared meaning.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 is describing a person or team having success in a game or competition, while Statement 2 is describing the physical location of a player in a sci-fi or space related context. They have different subjects and different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey completely different ideas.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a winner, which implies that the player is involved in some kind of game or competition. The second statement explains the goal of a player in a game where they travel across the universe to discover whether certain planets were the site of a murder. These are two completely different contexts and objectives.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They each refer to completely different scenarios. The first statement implies a competition where a player comes out victorious while the second statement describes a gaming or investigative scenario in a possibly fictional universe.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They are talking about completely different scenarios. Statement 1 implies someone has emerged victorious in a game or competition, while statement 2 refers to an investigative goal or mission within a game or scenario, possibly mystery or science fiction themed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement makes an assertion about a player winning something while the second statement imposes a rule or restriction about a player's actions during a game.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a winner while the second statement discusses a rule of a game prohibiting a player from revisiting the same planet.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a winner, which could indicate a game or match that the player has won. The second statement is a rule about a game where a player is not allowed to visit the same planet twice in one turn, which is not related to winning or losing.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing two completely different concepts. The first statement is suggesting victory of a player, and the second is discussing a rule for a game that involves visiting planets.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has achieved a victory, whereas statement 2 implies a rule or restriction about a player's movements or actions within a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a player has won something or someone, whereas the second statement describes a rule or constraint about a player's movement in a game.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a victory or success, while the second statement is about specific restrictions on movement and activity during gameplay.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player having a winner, which could mean that that the player has won something or someone else has won in a game in which the player was participating. The second statement is explaining rules of a game, specifically the rule that a player can change directions but not visit the same cell twice on one turn.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 indicates that there is another individual that has won or is outperforming the player in question. Statement 2, on the other hand, seems to be a rule or guideline in a game outlining the constraints or limitations on a player's actions during their turn.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has already won or achieved success in a game or competition. Statement 2, on the other hand, describes a rule or restriction regarding the movement of a player in a particular game, with no indication as to whether the player has won or not. These two statements discuss different aspects of gameplay and do not have the same implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a particular player has achieved victory or has someone successful associated with them. The second statement, however, refers to a game scenario where each player gets unique information regarding a murder. The two statements convey completely different ideas.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 is about a player having a winner, while Statement 2 is about players receiving unique information regarding a murder.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is indicating that a player (in a certain context, possibly a game) has achieved a win. The second statement seems to be describing a scenario in a murder mystery game where every player is given unique information about the crime. The two scenarios presented in these statements are not the same.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They address different topics and concepts: one is about a player winning whereas the other pertains to information distribution among different players in perhaps a game or scenario.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competition or game where there's a victorious party. Statement 2 implies a scenario, possibly a game or investigation, where players are given unique information about a murder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 simply states that a player has a winner, which is vague and doesn't specify the means or game being referred to. Statement 2, on the other hand, is very specific, describing the conditions under which a player wins in a specific game (presumably some sort of murder mystery game). These are not the same meanings.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is much more general and could refer to many different types of games or contexts. Statement 2 is very specific and refers to a specific game with a detailed description of how a player can win.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is very general and implies that a player has a victory or win in a non-specific game or situation. The second statement is very specific and describes a particular way in which a player can win a game by successfully guessing the details of a murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is very general and doesn't provide any specifics on how a player becomes a winner. Statement 2, on the other hand, gives a very specific scenario on how a player becomes a winner in a particular game.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is very general, suggesting that a player has won a game but not specifying how. Statement 2, on the other hand, is very specific about the method of winning the game, implying the game has specific rules or tasks required to win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They present entirely different concepts. The first statement refers to a winning situation in a game possibly, while the second statement refers to specific requirements for a player to visit a planet in a game or simulation, which potentially involve space exploration.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement indicates that a player is victorious or has a champion. The second statement defines a condition or rule a player must follow to visit a planet in a game or simulation.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss completely different subjects; the first is about a winner in a game, and the second is about the requirements for a player to visit a planet in a space-themed game or simulation.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has achieved a victory or has someone who is a winner. Statement 2 implies conditions a player must meet in order to visit a planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that there is an individual who possesses a winner, likely in a game of some sort. The second statement discusses a scenario where all players are informed about the details of a murder when a correct hypothesis is announced. The context between the two statements is completely different.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement suggests that a player has won a game or match. The second statement discusses the unveiling of information concerning a hypothetical murder in a game setting.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a winner, presumably in a game or sports context. The second statement seems to be related to a game or scenario involving a murder mystery, where the players are informed once the correct hypothesis (or solution) is announced. They are discussing different circumstances and situations.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey completely different ideas. The first statement indicates someone has a victorious player while the second statement describes a scenario possibly from a murder-mystery game where everyone is informed once the right guess has been made.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that someone in a game or competition has achieved success or victory. Statement 2, on the other hand, suggests that in a hypothetical scenario (possibly a murder mystery game or investigation), players are made aware of all the relevant details once the correct theory or explanation is revealed. There is no direct correlation or similarity in implication between these two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 suggests that a player has won something, but it's not clear without context. Statement 2 describes the type of structure an application will take, specifically a client/server structure for a game. Neither statement provides the same information or context.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player having a winner, which could imply a game situation. The second statement is about a technical setup of an application, specifically a game, where each client supports one player's view.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is implying that a player has someone or something (possibly a game or match) that they have won. The second statement is discussing the technical structure of a game application, explaining that it will have a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 implies that a player has been victorious or successful in a game. Statement 2 refers to the technical setup of a game or application, specifically how it will operate in a client/server structure and present the game from the perspective of individual players.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 refers to a player winning a game, whereas Statement 2 describes how an application will structure its client/server relation to display a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a player has someone who has won, while the second statement describes a strategy for playing a game. They are discussing different subjects and concepts.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 implies that a player has achieved victory in a game, while Statement 2 describes a specific game strategy involving various actions such as question selection and deductive reasoning.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is simply stating that a player has a winner, which may be referring to the fact that a particular player has been victorious or successful in a certain context or game.
+Statement 2, on the other hand, is explaining the strategy involved in a specific game that revolves around questioning other players, choosing planet destinations, and deducing murder scenarios. It's not directly related to winning a game or a player being a winner.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies that a certain player has emerged victorious or has received some form of achievement. The second statement, on the other hand, explains a strategy used to play a game. These two statements communicate different ideas and therefore cannot be considered synonymous.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a person or team has achieved a victory in a game or competition. Statement 2 implies a complex game with multiple aspects that need to be managed and strategized, and doesn't necessarily imply a win or loss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 implies a scenario where a player in a game or sport has achieved a victory. Statement 2 describes the objective of a class project to create a specific type of online game. They do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is talking about a player having a winner while the second statement is discussing the goal of a class project to implement a specific type of game.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a certain player having a winner, but it's not clear what game or context it's related to. The second statement, on the other hand, speaks about a specific class project goal, which is to implement a particular internet-based game.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests a player in a game has achieved victory or success. Statement 2 describes a class project related to developing an online game. They speak about different things.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a competition or game taking place and someone has won, while statement 2 discusses the aim of a specific class project which is to create an online detective game. The two statements are related to games but they imply different contexts and situations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a player has someone or something that has won. The second statement describes a process of problem-solving and deduction within a game. They convey different meanings and concepts.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement suggests that a player has won in some kind of competition or game. The second statement describes a game process where players gather clues and use logic to solve a murder mystery.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is vague and suggests that a player has won something. The second statement, however, is specific and describes a process in a murder mystery game where players deduce the identity of the killer.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is very broad and could apply to many situations, while statement 2 is more specific and describes a process within a murder mystery game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a win, while the second statement describes a specific process of gameplay. They talk about different aspects of what might be a game context.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first talks about a player winning while the second explains a process of gameplay, specifically visiting a planet.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is discussing a player having a winner which implies a game or competition of some sort, while Statement 2 is describing a specific action taken by a player in a game, possibly a strategy game that involves a board and planets.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They describe two entirely different scenarios. The first statement speaks about a player winning a game, and the second statement describes a player's movement in a game, possibly a board game set in a space environment. There seems to be no direct correlation between these two statements.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has succeeded in a game or competition. Statement 2 describes a specific sequence of actions or strategy within a game, likely related to board games or video games with a space exploration theme. These two statements convey different types of information and do not directly relate to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is talking about a player having a winner which implies a competition or game. The second statement is talking about a player's ability to enter a planet's atmosphere with a different number of moves, which implies a space exploration or game context. The two statements are different in terms of context and meaning.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. They discuss different aspects - a winning state in a game and the ability to enter a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a winner which might imply a competition or game. The second statement is about a player being able to enter a planet's atmosphere in a different number of moves, which most likely refers to a game scenario or space exploration.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They express completely different ideas. Statement 1 suggests that the player has won something, while statement 2 refers to the player's ability to move in a video game or similar context.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that the player is involved in a competition of some sort and has achieved victory or has a strategy that leads to victory. Statement 2 implies that the player is involved in some sort of space exploration or simulation game and has the ability to reach a planet's atmosphere using a varying number of moves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a player having a winner, likely referring to a game or competition scenario. The second statement, however, refers to a hypothetical scenario being accepted as true and all players being informed about it. They convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a player having a winner, while statement 2 discusses a hypothesis and information being shared among players.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a player having a winner, possibly in a game or competition. The second statement talks about a situation where a hypothesis can't be denied and all players are informed about it. They are about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is referring to a player having a successful outcome or a victor. The second statement is talking about a hypothetical situation where players are informed of an indisputable hypothesis. They are referring to completely different scenarios.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They are addressing two different ideas. Statement 1 implies a game or competition scenario where a player has succeeded in winning. Statement 2 suggests a scientific or research situation where hypotheses are tested and results are shared amongst players (potentially researchers or participants).</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a winner, implying competition or a game scenario. The second statement refers to a specific action, presumably within a game, that costs the player a move. They refer to two different aspects or situations.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about a player winning a game or match, whereas Statement 2 is discussing the specific cost of a move in a game.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey two completely different concepts. The first statement is related to winning a game or match, while the second statement is about executing a move in a game.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement implies that a player in a game or sport has achieved a victory, while the second statement implies a cost or requirement for a player to make a move in a game, likely a board game or video game. These are two different scenarios and contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 suggests a competition or game situation where a player is declared as a winner. Statement 2 describes a situation in which a player disproves a hypothesis and that information is only shared with the player who inquired. They discuss different concepts and scenarios.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No, these two statements are conveying different meanings. Statement 1 is talking about a player having a winner, which could imply the player is successful or victorious in a game or contest. On the other hand, Statement 2 discusses the processing and communication of information regarding disproving a hypothesis. There seems to be no direct correlation between these two statements.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a player having a victory or success in a game or contest. The second statement is about a player being able to disprove a hypothesis and that information being shared only with the player who asked the question. These are two completely different scenarios.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that someone has won a game or competition, while statement 2 discusses sharing of information within a certain situation or scenario. These are unrelated topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a winner, which suggests a competitive context or a game. The second statement describes the structure and method of a specific type of game, one that is internet-based and can be played remotely. The two statements are providing different pieces of information and are not interchangeable in meaning.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is talking about someone winning, while the second statement is discussing where and how the game can be played.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No, these two statements are conveying different meanings. The first statement is about a player having a winner, presumably in a game or competition. The second statement is about the nature of a game being accessible and playable over the Internet, possibly from different geographical locations.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is about a player having a victory in a game, while statement 2 is about the nature of the game being played, specifically that it can be played remotely over the Internet.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that there is a player who has won a game, while statement 2 describes the nature of the game being played (i.e., it being Internet-based and playable from remote locations).</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey completely different ideas. The first statement suggests that a player has achieved victory in some context, while the second statement talks about the strategy or a part of a gameplay where players need to reach certain locations quickly.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player having a winner, while the second statement discusses a part of a game that involves quickly reaching suspicious locations.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about someone winning in a game. Statement 2 is about the strategy or tactic required in a game, specifically involving quickly investigating suspicious locations.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first suggests someone winning a game, while the second refers to certain tactics involved in playing a game. They describe different aspects of game play.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a victor in a game, while statement 2 implies that the game involves quickly reaching certain places for investigation. These are two separate concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They discuss different topics and situations. The first statement refers to a player having someone they defeated or that performed worse than them, while the second statement refers to the communication of a theory or hypothesis of a murder to all players in a game.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. They are referring to entirely different subjects - the first to a competition or game, the second to a debate or analysis involving a murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is about a player having a loser, possibly in a game or competition. The second statement is about the communication of a murder hypothesis to all players, presumably in a game or investigation context. They are about totally different scenarios.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is referring to a player having a losing position or stance in a game, while the second statement talks about a certain idea or theory, presumably in a game of mystery or deduction, being shared among all players.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement implies a competitive situation where there is a losing player, while the second statement seems to suggest a scenario in a game involving a murder mystery or an investigative role-play. There is no identical meaning or implication in the two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a loser, which implies a competition or game. The second statement describes the role of a server in coordinating communication and the course of a game. They refer to different aspects of a game situation and do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. Statement 1 is about a player in a game having a loser, whereas Statement 2 explains the role of a server in coordinating communication between players and orchestrating the game's sequence of events.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a player having a competitor who loses, while the second statement describes the role of a server in coordinating a game. These two statements do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a player who has been defeated in a game, while statement 2 discusses the role of a server in managing and coordinating communication and events in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a loser, possibly in a game or competition. The second statement refers to the visual representation of entry points in a board game. They do not express the same idea or concept.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement talks about a player losing in some context, which could be a game. The second statement describes a specific graphical representation in a game. They seem to be related to games, but they are discussing different aspects.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player in a game having a losing position, while the second statement describes a specific graphical representation in a game. They refer to different aspects and are not related in meaning.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is about a player having a loss in a game, presumably. The second is about a specific graphic representation in a game. There is no direct correlation or similarity between the two statements.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to a player in a game having a disadvantage or losing, while statement 2 describes a graphical interface or a specific aspect of a game. They convey different information and do not imply the same thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is stating that a player has someone they have defeated or are superior to. Statement 2 is explaining the rules of a game, particularly how a player is allowed to move their game piece. There is no connection or equivalency between the two ideas presented.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player having a defeat or having been defeated, while the second statement gives information about the rules of a game.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is relating to a player having a losing round or game while the second statement is describing the rules of a specific game.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a player having a losing opponent, while statement 2 describes a specific type of movement or action that a player can perform in a game.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is discussing the status of a player in a competitive setting while statement 2 is describing the rules of a game. These are two completely different concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They discuss different concepts - the first one is related to a competitive gaming or sport scenario, while the second one appears to be centered around a murder mystery game or investigation.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement is about a player having a loser, whereas the second statement is about forming a hypothesis for a murder circumstance and perpetrator.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is referring to a competitive situation where a player has someone they have defeated. The second statement is describing a game scenario where players are trying to disprove a proposed theory about a murder case using their evidence.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement speaks about a player having an opponent while the second statement describes a scenario or game where players use evidence to disprove a hypothesis about a murder circumstance and perpetrator.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about competition and losing, while the second statement is about traveling and strategizing in the context of a game.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about competition, possibly referencing sports or games, and states that a player has someone they lost to. The second statement appears to be referencing a sci-fi or fantasy context involving players traveling through wormholes. They are different in both topic and meaning.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing completely different topics. The first is discussing the competitive results of a player, while the second is discussing possible movement or travel paths for players.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competitive situation where there are winners and losers. Statement 2 suggests a game or scenario involving travel and strategy, potentially in a science fiction setting. They may both be related to games, but the implications are not identical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a player has been defeated or outperformed by another player. The second statement describes a rule about movement in a game, potentially relating to strategy or game mechanics, but it does not necessarily indicate someone has lost.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player having a loser, while the second statement is about the rules of movement in a game.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement suggests that a player has lost a game or match, while the second statement explains a rule in a game that a player can't move into a space already occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a player who has experienced defeat, while the second statement presents a rule or restriction about movements in some game situation.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a particular player has been defeated or is inferior in a game. Statement 2 explains a rule or condition in a game that prevents one player from taking over a space currently occupied by another player's game piece. They address different aspects of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a losing position or someone who loses against them. In contrast, the second statement describes the process of players during a journey across the universe with the allowance to inquire about each other's information. The subject matter and content of these two statements are distinct and unrelated.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about someone being unsuccessful in a game, while the second statement describes a scenario where players are allowed to inquire about the knowledge of other players, presumably in a game setting.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is referring to a player having someone who loses, while Statement 2 is about players traveling through the universe with the permission to ask questions about what information others possess. They are not related.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a competitive situation where a player has either lost or has someone who regularly defeats them. Statement 2 refers to a scenario where players are exploring and are allowed to inquire about the other players' knowledge or information. They refer to two different concepts.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests a competitive scenario where there is a player who has lost. Statement 2 pertains to players gathering information from each other while traveling. There's no inherent connection or identical implications between the two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey different concepts; the first one talks about a player having a loss in a game, while the second statement describes a particular game setting but does not indicate that any player is losing.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply implies that a player has lost in a game while the second statement describes a specific type of game.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement indicates that there is a player who has lost. The second statement describes a specific type of game with its gameplay scenario but does not mention any particular player or their status (winner or loser).</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They refer to completely different contexts. The first statement refers to a player having an adversary or opponent who may have defeated them in a game. The second statement describes the plot and gameplay of a specific, space-themed mystery board game.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 generally implies that in a game there is a participant or player who is not winning or has lost. Statement 2, on the other hand, provides a detailed description of a specific type of game. It does not suggest anything about winning or losing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a player in a game or sport has been defeated or outperformed by another player. The second statement, on the other hand, discusses a hypothesis being refuted and the need to show evidence for this refutation to other players, likely in a scientific, debate or argumentative context. There is no clear overlap or equivalence in meaning between the two statements.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement implies that a player lost a competition or game. The second statement speaks about a hypothesis being disproven and the need for evidence to illustrate that for others.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing two different topics - the first statement is discussing a player in a competitive setting, while the second statement is discussing a debate or analysis of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. The first statement refers to a situation in a game, implying there is a defeat or loss for a player. The second statement refers to a situation of hypothesis testing or a debate, where information about a refuted hypothesis needs to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is very general and indicates that a player has someone who defeats him or her in a game. The second statement is much more specific and outlines specific conditions and consequences related to a game if a player's hypothesis is incorrect.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is simply indicating that a player in a game has someone else who they are losing to. The second statement, however, is describing a specific rule of a game and conditions under which a player loses their ability to continue playing as normal.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies a player is in a losing position or has a defeat. The second statement is more specific, explaining the conditions under which a player can lose a particular game. It doesn't necessarily mean the player is a "loser," it just outlines one mechanism of losing the game. They may discuss similar topics, but the two statements carry different meanings.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply implies that a player has lost, but does not explain the circumstances or consequences of the loss. Statement 2 provides a detailed explanation of what happens if a player is incorrect, i.e., they lose, cannot make moves, and can only refute other players' hypotheses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement indicates that a player has been defeated or is inferior. The second statement outlines a rule or condition for winning a game. They convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player losing, while the second statement is about the conditions for winning a game.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1: "A player has a loser" suggests that there is a player in the game who is not performing well or can't win.
+Statement 2: "The first player to accomplish this wins the game" implies a rule or condition where the game is won by the first player who achieves a certain goal or objective.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement implies that a player has someone who beats them, whereas the second statement talks about the winning criterion in a game.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 suggests that a player has been defeated or has a weaker opponent, whereas Statement 2 implies a rule about winning the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is vague and could refer to any type of player in a game or sport who has lost. The second statement is very specific and refers to a player in a specific space-themed game with certain rules and options.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. They discuss different concepts - one about winning or losing and the other about game strategy.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player having a loser, which seems to refer to some kind of competitive scenario. The second statement is describing a specific rule or possibility within a game that involves tokens, spinners, wormholes, and planets. The two situations seem to have no direct correlation.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss completely different concepts - the first one talks about a player having a defeat while the second one describes a specific action a player can take in what appears to be a board game.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is in a losing position, while statement 2 pertains to the rules or possible moves in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 suggests that a player is linked with a loser, but it is not specified what this means in the context of a game. 
+Statement 2 is very specific and indicates that a player who draws an incorrect conclusion will lose the game. These two statements convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement implies that a player lost, while the second statement explains under which condition a player loses.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 suggests that a player is defeated by someone or has someone who consistently beats them. 
+Statement 2 explains a condition in which a player might lose a game - that is, by drawing an incorrect conclusion.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 implies that a player already has someone who has defeated them. Statement 2 suggests a condition where a player will lose the game if they make an incorrect conclusion. The two statements are expressing different ideas.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. 
+Statement 1 implies that a player has already lost in some context, while statement 2 provides a hypothetical condition in which a player could lose, but it doesn't necessarily mean that they have already lost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a single player who has suffered a loss. The second statement refers to a solution being shared with all players. They cover two completely different topics.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a loser while the second talks about a solution being broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a player in a game or competition having someone who has defeated them. The second statement refers to disseminating a solved problem or answer to all players in a game or competition.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey two completely different ideas. Statement 1 suggests that there's a player who has been defeated in some type of game, while Statement 2 is about a solution being communicated to all participants in a certain situation.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement implies a competitive situation where someone has been defeated. The second statement implies that a solution or outcome is shared with everyone involved in a certain context or scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. One speaks about the situation or status of a player, while the other describes the objective or goal of a game.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. One is about a player and the other is about a game's objective.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement refers to a player having someone or something they are losing to. The second statement describes objectives of a game, which involves gathering clues and traveling the universe.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They refer to completely different situations. The first statement refers to a competitive situation where a player is defeated by someone else, while the second statement describes the goal or objective of a game.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 indicates there is a player who is not successful or is defeated in a game, while statement 2 describes a specific goal of a game set in the universe. These are different ideas and convey different information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies a competitive situation in which a player has an opponent who loses. The second statement discusses a game dependent on luck and speed, with no direct reference to winning or losing.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is implying that someone is defeated by a player, while the second statement is explaining how an element of a game depends largely on luck.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They refer to different contexts and ideas. The first statement suggests that someone has an opponent who consistently loses, while the second statement describes a game element that is largely determined by chance.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competitive scenario where one party has been defeated, while statement 2 suggests randomness or chance influencing a player's progression or outcome in a game or situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are talking about completely different contexts; one is mentioning a player's loser and the other is discussing a player's presence on a planet.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. They discuss completely different topics. Statement1 is about the result of a competition and Statement2 is about the location of a player in relation to a planet.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a player having a loser, which suggests a competition or game situation. The second statement talks about a player being considered on a planet once they enter the planet's atmosphere, which suggests a situation related to space exploration or virtual reality.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are about completely different topics. The first statement is about a player facing defeat or having someone better than them in a game or sport. The second statement is about a player being considered present on a planet once they enter its atmosphere.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement is about a player having a loser, likely in a competitive setting. The second statement is about a player being considered to be on a planet in a presumably science fiction or space exploration context. They involve completely different scenarios and concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests a competitive relationship or context, while the second statement involves a more specific scenario about exploration and investigation.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a loser, while the second statement discusses the objective of a player's movement around the universe for investigation.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about the outcome of a competition, with a player having a rival who has defeated him/her. The second statement is talking about a role or objective a player has in a game, which involves investigating planets for a potential murder site. They are different in context, meaning and theme.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about two very different topics. The first is about a player having a competitor or opponent who loses, while the second one is about a specific objective within a game or scenario to investigate possible murder sites on various planets.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They talk about completely different scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first is about a player having someone they've lost to, while the second is about the rules of a game involving travel between planets.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. They are about completely different topics.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement indicates that a player has someone they are losing to while the second statement presents a rule or restriction in a game related to visiting the same planet.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement refers to the possibility of a player losing in a game or event, while the second statement refers to a specific rule or restriction in a game, which does not directly indicate winning or losing.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement refers to a player having lost in some context, while the second statement refers to a player's actions within a specific game-related context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They talk about two completely different aspects. Statement one refers to a player having someone they've beaten in a game, while statement two describes a specific rule about a player's movement within a game.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement speaks about a player having a 'loser', which could imply a game with other competitors. The second statement is providing specific rules about how a player can move in a specific game.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player having someone they've defeated. The second statement describes certain rules of a player's movements during a turn in a game.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a player having a competitor who defeats them, while the second statement describes a certain rule or limitation within a game. They communicate different ideas.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that the player has been defeated by someone else, while statement 2 refers to the rules or limitations of a game the player is participating in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement implies that a player has someone who has been defeated or is inferior, while the second statement describes a situation where every player gets unique information about a murder.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a loser, while the second statement discusses about players receiving information about a murder.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is indicating that a player has someone they lose to.
+Statement 2 is about players receiving different information regarding a murder.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They convey completely different ideas and are about different situations. The first statement indicates that a player in a game or competition has lost or has someone who has beaten them. The second statement discusses a scenario likely in a game of deduction or mystery, where each player is given unique information about a murder.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that there is a player in a competition or game who has been defeated. Statement 2 implies a scenario possibly from a murder mystery game, where each player receives unique information about a murder. These implications are not identical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that someone has been defeated by a player, while the second statement details a specific way a player can win a game.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement simply implies that a player has suffered a defeat, while the second statement provides specific conditions for a player to win a game.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same relationship or even the same topic. The first statement seems to refer in general terms to a competitor in a game who has someone they have defeated. The second statement is more specific and describes a particular practice within a certain game. The two statements do not express the same meaning.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 is vague and could pertain to many situations where a player is perceived to have a disadvantage or has lost a game. On the other hand, statement 2 is detailed and specific, referring to a particular win condition in a game that involves guessing a correct murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has been defeated or is inferior in some way. Statement 2, on the other hand, describes a specific way of winning a game, presumably a murder-mystery type game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They talk about two different subjects. The first one mentions about a player having a loser which could refer to a game or sports situation. The second statement, however, talks about requirements for a player to visit a planet, which could refer to a video game or space exploration scenario.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player losing, while the second one describes a condition for a player to visit a planet.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. The first statement suggests that a player has someone they have defeated or are superior to in a game or competition. The second statement provides rules or conditions for a player to visit a planet in some sort of game or exploration context. These two ideas are not related.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are talking about completely different subjects. Statement 1 refers to someone losing in a game, while Statement 2 discusses the requirements for a player in a game to visit a planet.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to a game situation where a player has been defeated or is at a disadvantage. Statement 2 refers to a rule in a game or simulation about visiting planets. They do not imply the same thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that in a game or competition, a player has someone who is losing. The second statement refers to a specific scenario within presumably a mystery game when a hypothesis about a murder is revealed to all players. They refer to different situations and express different ideas.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having a loser, while the second statement is about the announcement of a hypothesis surrounding a murder. They are discussing completely different topics.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 refers to a player having a losing position or being bested by another player, while Statement 2 describes a scenario in a game where players are informed about details of a crime.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They convey different ideas and do not have the same meaning. The first statement is about a player having a disadvantage or perhaps losing, while the second statement is about the revelation of information to all players in a murderous scenario.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 seems to imply that there is someone who has lost in a game or competition. Statement 2 is about a hypothesis being confirmed and all players being informed about a murder's circumstances. These are very different circumstances and do not carry the same implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a player having a loser, whereas the second statement describes an application taking on a client/server structure to support a player's view of a game.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same meaning. The first statement suggests that in a game or competition, a player has someone they have defeated. The second statement is explaining a specific technical setup for a gaming application, where each client (user or player) has a dedicated server supporting their specific viewpoint or experience of the game.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement is referring to a competition setting where a player has lost. The second statement is describing the technical aspects of a game application. They are talking about two different contexts.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competitive situation where one player is at a disadvantage or has lost. On the other hand, statement 2 is describing a technical structure for an application, specifically a client/server structure for a game. These are two different contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a competitor who loses, while the second statement describes the strategy of a game that involves asking questions, selecting destinations, and deducing a murder scenario. They are talking about two different concepts.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 is talking about a player in a game who has lost, while Statement 2 is discussing a certain game strategy involving question selection, destination selection, and deduction of a certain scenario.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. Statement 1 refers to a player having a losing opponent, while Statement 2 discusses specific strategies of a game, which has no direct relation to whether a player is a winner or loser.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is referring to a player having an entity or situation that is causing them defeat or failure. Statement 2, on the other hand, is outlining the strategy of a game in terms of selecting questions, choosing destinations, and deducing a murder scenario. They are discussing different aspects and do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies the existence of a competitor who hasn't won, while statement 2 discusses a specific game's strategy. They refer to different aspects and do not imply the same thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first speaks about a player and his competitor, while the second describes the goal of a class project, which is to implement a specific type of game. These two statements contain different semantic content.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player having a loser, while the second statement is about a specific class project to implement an Internet-based game.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a rival or opponent who they lose to. The second statement is providing information about a specific project of creating an internet-based game. They are talking about two different scenarios.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 discusses an individual in competition with a defeated opponent, while statement 2 presents details about a class project intending to create a particular online game.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that someone in a game or competition is losing or has lost, while statement 2 explains the objective of a class project. The two statements are not related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 refers generally to a player having lost, while Statement 2 specifically refers to a potential outcome of a mystery or crime game, where players can deduce the identity and circumstances of a perpetrator.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement refers to a player having a loss in a game perhaps while the second statement describes a specific game process in solving a murder mystery.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement describes a situation where a player has someone they are losing to, while the second statement describes a situation where players use clues and reasoning to solve a murder mystery.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are talking about completely different things. The first statement talks about a player having a defeat or a superior opponent, while the second statement refers to a process of deduction in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a player who has been defeated or is in a disadvantaged position. Statement 2 refers to a process of deduction and reasoning in a game (possibly a murder mystery game) to figure out the solution. One is about a result (a player losing) and the other about a process (deducing the solution to a mystery).</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They refer to completely different contexts. The first talks about a player having a loser (implying a competitive situation), whereas the second talks about a player's action within a game involving a board, planet, and legal moves.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about a player having a losing situation, while the second statement speaks about a player maneuvering in a game, presumably a board game involving space and planets.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a player having a loser, which implies competition or a game. The second statement, on the other hand, describes a specific action or movement within a game, presumably a board game involving planetary exploration.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement discusses a player having a loser, which implies a competitive situation or a game. The second statement, however, describes a specific process within a game, likely a board game, that involves visiting a planet. The two statements discuss different scenarios and are not interchangeable.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests a player has been defeated in some form of competition, while statement 2 describes a player's actions within a game, specifically one that seems to involve board movement and space exploration. The two statements refer to different scenarios and concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are referring to different concepts. Statement 1 talks about a player having someone they've defeated in a game, while Statement 2 refers to a player entering a planet's atmosphere in a game or simulation.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. One discusses a player having a "loser" while the other talks about a player entering a planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about a player in a game having someone they've defeated or been defeated by, whereas statement 2 is discussing the possibility of a player entering a planet's atmosphere in a game with varying numbers of moves.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies competition or a game, indicating the player has someone they lost to. The second statement refers to a player's ability to move or perform actions within a game or simulation, likely a space-themed game. It does not suggest any losing or winning situation.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that the player has been defeated by someone or something, while statement 2 suggests that the player has a varied number of moves to enter the planet's atmosphere. These are different contexts and implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having a loser, implying some sort of competitive context. The second statement discusses a scenario involving a hypothesis not being denied and players being informed. They are expressing different ideas and contexts.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement speaks about a player having a loser, but the second statement is about a hypothesis being unable to be denied and players being informed of it.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having a loser, possibly in a game or competition. The second statement is about informing all players of a fact if a certain hypothesis cannot be denied. There's no apparent connection or similar meaning between the two statements.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss two different topics and do not share the same meaning. The first one is about a player's status or performance, and the second one refers to a situation in experimental or investigative contexts.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a competition or game where a player has lost or is losing, whereas statement 2 implies a scenario of information sharing under certain conditions in a possibly scientific or research-based setting. They involve different contexts and different outcomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They talk about two completely different situations. The first one implies competition or a game where a player has someone who lost. The second one seems to refer to a game or a simulation where players can move around, possibly in a space context.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement implies a competition or game context, but does not provide specifics. The second statement is specific and seems to be describing an action or strategy in a game, likely something spatial or tactical. The information given is not related in content or context.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having an opponent who is losing, while the second statement is about requiring a specific action (a move) from a player in a game setting.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies the player has been defeated or has a disadvantage. The second statement is about the specific action or cost that the player requires to enter the atmosphere from the adjacent cell in a game. They are speaking about two different contexts entirely.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 suggests competition or a game scenario where the player is not the victorious one. Statement 2, on the other hand, involves a specific action or cost related to a move in a game or simulation, likely in a science-fiction or space-themed context. There is no direct correlation or identical implication between the two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 implies a competitive situation where one person is set against another in a game or contest. Statement 2, on the other hand, refers to a situation where a player disproves a hypothesis, and the information is only shared to the player who asked. It's more about information sharing and doesn't imply competition or gaming context.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player being a loser while the second statement talks about a player disproving a hypothesis and that information being shared only with them.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement speaks to a player's status in a competitive situation, while the second statement describes a hypothetical situation about communication of information within a game or inquiry context.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They refer to completely different situations - one refers to competition (specifically having someone who has lost), and the other refers to information sharing in a hypothetical situation.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that there is another player who has bested the said player in a game or contest. Statement 2, however, is discussing a hypothetical situation where a player disproves a theory and the information is given solely to them. The content and implications of the two statements are distinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement implies that there is a player who has been defeated in some context, while the second statement describes the nature of a specific type of game. They convey different pieces of information.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement indicates that a player has someone they lose to, while the second statement gives information about the nature of the game being played.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having someone they've defeated in a game, while the second statement describes how a game is played on the Internet, allowing players to play each other from different locations.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is about a player having someone they've lost against, while the second statement explains how a game functions over the internet.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a player in a game who has been defeated or is not successful. Statement 2, on the other hand, describes the mode of playing the game and doesn't imply anything about winning or losing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They convey completely different concepts. Statement 1 suggests a competitive context where a player has another player that they defeated, while Statement 2 describes a strategy or requirement within a game that revolves around investigating suspicious locations.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement refers to a player having a loss in a game, while the second statement refers to a strategy within a game.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same message. Statement 1 implies that there is a player who has lost or has someone that regularly loses in their midst. Statement 2, on the other hand, describes a rule or aspect of a game where speed and investigation are key elements.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different information about a game. Statement 1 is about a player losing, while statement 2 is about an action or strategy within the game.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a competition and someone is unsuccessful in it. Statement 2, on the other hand, implies a strategic or investigative element in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first one talks about a clue containing information, while the second one is about a specific action (disproving a hypothesis) and the communication of related information to a specific person (inquiring player).</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is stating that a clue has information, presumably about some sort of mystery or puzzle. 
+Statement 2 is about a specific situation in a game where if a player can disprove a hypothesis, the information to disprove it is only shared with the player who asked. It's a rule or mechanic in a game. The two statements deal with the concept of information but in different scenarios and contexts.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, these statements are not synonymous. The first statement talks about a clue possessing information while the second statement discusses the process of disproving a hypothesis and communicating that information to a certain player. They address completely different topics.
+</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 talks about a clue containing information, while Statement 2 deals with the communication of information when a hypothesis is disproved. The two are not directly related in meaning or implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a clue possessing information, while Statement 2 talks about players in a game being able to ask about the information others possess as they travel through the universe. They discuss different contexts and concepts.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a clue containing information while the second statement talks about players in a game asking others about their information.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a clue having information, while the second statement refers to players in a game asking each other about the information they have. They are referring to different scenarios and concepts.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. 
+Statement 1 is about a clue containing information. 
+Statement 2 is about players in a game asking each other about the information they have.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a clue contains information, suggesting a detective or puzzle-solving context. Statement 2, on the other hand, implies a game context where players can inquire about the information others have, suggesting a more interactive and social scenario. The statements deal with information in different contexts and manners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is rather vague and talks about a clue possessing some information. The second statement, however, is very specific and explains a scenario where questions are being formed into a hypothesis regarding a murder, which the other players are then tasked to disprove using their evidence.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a clue containing some information, presumably in a context like a mystery or puzzle. The second statement is discussing the forming of a hypothesis related to a murder circumstance and perpetrator, and then inviting other players to disprove this hypothesis using their evidence. These two statements could both be parts of a larger game or puzzle scenario, but they refer to different specific aspects or steps within such a scenario.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about different concepts. The first statement talks about a clue carrying information. The second statement, however, talks about forming a hypothesis (an educated guess) about a murder case and its perpetrator, and then disproving it with evidence by the other players.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is a simple indication of a possession relationship between a clue and information, not specifying any context. Statement 2, however, is about a crime role-playing game scenario, where a hypothesis is formed based on the questions, and others are to disprove this with their evidence. The contexts and contents of each statement are different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement merely states that a clue contains information. The second statement, on the other hand, provides more specific details which include each player receiving unique information about a murder.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement pertains to a clue containing information but does not specify who receives this information or the nature of it. The second statement details a scenario where each player receives unique information regarding a murder.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement implies that there is some information contained within a clue. The second statement is conveying a situation in a game where each player receives unique information about a murder. They are two different contexts and scenarios.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement speaks about a clue containing information, while the second statement refers to players receiving unique information about a murder.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a single clue carries or contains information. Statement 2 implies that all players in a game receive different pieces of information about a murder event. The two statements address different situations and thus carry different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement implies that a question contains or is associated with some kind of information. The second statement is about a gameplay scenario where players are allowed to inquire about what information other players have. These two statements have different meanings and contexts.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a question having information, while the second statement is about players asking each other about the information they possess as they traverse through the universe.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 suggests a question already contains information. 
+Statement 2 indicates that players in a game can ask each other about the information they have. This is a more interactive scenario and is not directly linked to the information a question may or may not hold.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a question containing information, while the second statement is about players in a game asking each other for information.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 suggests that a question inherently contains information. Statement 2, on the other hand, describes a specific scenario where players in a game are allowed to ask each other about the information they have. It implies interaction and exchange of information among players in a game setting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is a very general statement about a question having information while statement 2 is a very specific statement about a scenario where questions are used to form a hypothesis about a murder case.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is very vague and doesn't provide much detail, while the second statement provides specific detail about the nature and purpose of the questions.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1: It generally implies that a question holds or contains certain information.
+Statement 2: It is more specific and situational. The questions are used to shape a theory about a murder situation and who might have committed the crime and the rest of the players are being asked to prove or disprove this theory. It implies a game scenario and makes no general statement about questions containing information.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is a broad comment about a question containing information, while the second statement describes a specific situation in a murder mystery game where questions form a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is a general statement about questions having information, however, statement 2 specifically talks about a hypothesis pertaining to a murder circumstance and perpetrator, inviting other players to disprove it with their evidence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests a hypothesis includes a specific detail - a murder weapon. The second statement is about the distribution or communication of a murder hypothesis to a group of people (presumably in a game scenario). They involve different subjects and actions.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a murder weapon, while the second statement discusses the communication of a murder hypothesis to all players.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. 
+Statement 1 suggests that a particular theory or hypothesis involves a murder weapon. 
+Statement 2 indicates that a theory or suspicion about a murder is being shared with all players involved.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is referring to a specific detail within a hypothesis - a murder weapon. Statement 2 is describing an action - the communication of a murder hypothesis to all players. These two statements are addressing different aspects and are therefore not the same.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a specific idea of how a crime was committed includes a murder weapon. Statement 2 implies that a theory about a murder has been shared with all involved participants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement simplifies the concept to suggest a murder weapon being part of a hypothesis. The second statement, on the other hand, provides detailed explanation of how a game is won by correctly submitting a murder hypothesis that includes a planet, a perpetrator, and a murder weapon.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement merely explains that a hypothesis includes a murder weapon. The second statement provides more detailed information about how a player can win a game by correctly guessing a hypothesis that includes a planet, a perpetrator, and a murder weapon, affirmed by the server.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is simply stating that a hypothesis includes a murder weapon. 
+Statement 2 is more specific and discusses game rules, it says a player can win by proposing their hypothesis (which includes a planet, perpetrator, and murder weapon) and having that hypothesis proven correct. The murder weapon is just one aspect of this hypothesis.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is referring to a hypothesis having a specific element, a murder weapon. Statement 2 is explaining an entire process by which a player wins a game by correctly guessing a series of elements (planet, perpetrator, and murder weapon) and being verified as correct by the server.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply implies that a hypothesis includes a murder weapon. Statement 2, on the other hand, is more complex and implies a game scenario where a player can win by correctly hypothesizing about three different elements (a planet, a perpetrator, and a murder weapon). Therefore, their implications differ significantly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a hypothesis involving a murder weapon, likely in a crime or mystery context. The second statement refers to the solution to a problem or game being communicated to all players. They discuss different subjects and actions.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. Statement 1 is about a hypothesis having a murder weapon, possibly in a mystery or crime context. Statement 2 is about a solution being broadcast to all players, which could be in a game or problem-solving context.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a hypothesis involving a murder weapon, potentially within a crime investigation. The second statement refers to broadcasting a solution to all players, often used in a context of games or problem-solving situations.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different ideas. The first talks about a hypothesis containing information about a murder weapon, possibly in a criminal investigation or a game. The second refers to a solution being shared with all participants, which could apply to various scenarios like a puzzle game, a group problem-solving task, etc. These statements could potentially be related in context, but they do not mean the same thing.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They are suggesting two different things and are unrelated. Statement 1 refers to a hypothetical scenario involving criminal activity, whereas statement 2 refers to a solution being shared among a group of people, presumably in a game or problem-solving context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a specific part of a hypothesis (a murder weapon), while the second statement is about the sharing of information regarding the entire murder scenario when a correct hypothesis is confirmed.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 refers to a specific detail of a hypothesis, while Statement 2 discusses what happens when a correct hypothesis is announced to players.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first one is suggesting that a hypothesis includes a murder weapon, while the second one talks about how players are informed about the circumstances of the murder when the correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies that the hypothesis for solving a case includes a murder weapon. In contrast, the second statement suggests that when a hypothesis is chosen or confirmed, everybody involved in the game is informed about all the details of the crime.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers specifically to a detail (a murder weapon) within a hypothesis. Statement 2, on the other hand, implies that all details of a hypothesis, when proven correct, will be revealed to all players. They are related, but not identical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about a hypothesis having a murder weapon, potentially in a game or a theory. The second statement is about other players being informed that a hypothesis has been disproved and they need to see the evidence that disproved it. These are two different concepts.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a hypothesis having a murder weapon, presumably in a crime-related investigation or game. The second statement pertains to players being informed that a hypothesis has been refuted, and they need to be shown evidence. While they both involve a hypothesis, they are referring to different circumstances and actions.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 talks about a hypothesis having a murder weapon, generally referring to a type of information or factor in a hypothetical scenario. Statement 2, on the other hand, speaks about players being informed about refutation of a hypothesis and needing to see the evidence of said refutation. They both discuss hypotheses but in different contexts.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a particular assumption or theory has identified a potential murder weapon, whereas statement 2 implies that a certain assumption or theory has been disproved and other players involved need to be shown the evidence that disproves it. Thus, the implications are distinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis having a murder weapon, which seems to be related to a murder mystery game or investigation. The second statement talks about the consequences for a player if they make an incorrect hypothesis in a game. The two statements relate to different aspects of a game and do not have the same meaning.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about a specific element of a hypothesis, namely a murder weapon. Statement 2 is discussing the rules and consequences for a player in a guessing game when their hypothesis is incorrect. There is no overlap or mutual context between the two statements.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a particular element or part of a hypothesis (a murder weapon). Statement 2, on the other hand, details the consequences if a player in a game proposes an incorrect hypothesis. They deal with different aspects and are not interchangeable in meaning.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is about the qualities of a hypothesis, while statement 2 is about the consequences of an incorrect hypothesis in the context of a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement involves a hypothesis about a murder weapon, while the second statement is about informing all players about a hypothesis that cannot be denied. They are conveying different ideas.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a murder weapon. The second statement talks about the condition where all players are informed if a hypothesis cannot be denied. They are about different aspects.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement pertains to a hypothesis involving a murder weapon, while the second statement suggests a scenario in a game where players are informed about the validity of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a specific element (a murder weapon) in a hypothesis, while the second statement refers to the process of notifying players about a hypothesis that cannot be rejected or denied. They convey different meanings.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement talks about a hypothesis having a murder weapon, which seems to be related to the content or particular elements of the hypothesis. The second statement, however, talks about what happens if a hypothesis cannot be denied, which is about the overall acceptance or denial of the hypothesis, without reference to its specific contents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement refers to a hypothesis possessing a murder weapon, possibly in a mystery game or a criminal investigation. The second statement outlines a rule about proving or disproving a hypothesis in a game or a debate, where the information is shared only with a certain player. These two statements refer to different aspects and are not equivalent in meaning.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement is about a hypothesis having a murder weapon, while the second statement is about how disproved information is communicated in a game.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 talks about an element (a murder weapon) within a hypothesis, while Statement 2 talks about the process or rule of communicating certain information to a particular player who can disprove the hypothesis.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to the content of a hypothesis, specifically that it includes a murder weapon. The second statement refers to the rules of a game, namely that information about disproving a hypothesis is shared only with the player who made the inquiry. They discuss different aspects and are not synonymous.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a certain idea or theory includes a murder weapon, possibly in a crime situation. Statement 2, on the other hand, is based on a game scenario where refuting information is only shared with the one asking. The two statements have different subjects and implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. Statement 1 suggests that a hypothesis includes a murder weapon, focusing on the object used in the crime. Statement 2, on the other hand, describes the process of formulating a hypothesis about the murder and the murderer inviting others to disprove it with evidence. The context is entirely different. Statement 1 focuses on the content of the hypothesis, while statement 2 focuses on the process of formulating and disproving a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply suggests that a hypothesis includes a murder weapon, without providing any further details or context. The second statement explains a process wherein a hypothesis is formed regarding a murder case, and other players are invited to disprove this hypothesis with their evidence.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning.
+Statement 1 suggests that a hypothesis includes information about a murder weapon. This could be used in the context of a murder investigation where a hypothesis or theory includes a specific murder weapon.
+Statement 2 is more complex. It speaks about forming a hypothesis regarding the circumstances of a murder and the identity of the perpetrator. It also involves other players or people in disproving this hypothesis with their own evidence. This could refer to a game setting or a formal investigation where multiple parties are involved and can contribute evidence.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests that a hypothesis includes a specific detail about a murder weapon. Statement 2 describes a process in which a hypothesis is created about a murder and the other players are challenged to disprove it with their evidence. The context of the game does not imply that a murder weapon is necessarily included in the created hypothesis.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a hypothesis includes information about a murder weapon. Statement 2, on the other hand, implies that a hypothesis is being formed regarding the overall murder circumstance and perpetrator, and that other players are asked to disprove this theory. The focus and depth of the hypotheses mentioned in these statements are different; the first one focuses on the murder weapon while the second one is about the overall crime and who might have committed it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses a hypothesis having a perpetrator, implying that a suspect has been identified. The second statement refers to a specific "murder hypothesis" being shared with all players, probably in a game or investigation scenario, but does not necessarily mean a perpetrator has been identified. The context in which these statements are used could affect their interpretation, but at face value, they are not the same.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement discusses a hypothesis having a perpetrator but doesn't specify what the hypothesis is about. The second statement specifies that a murder hypothesis is being communicated to all players, but does not mention anything about a perpetrator.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is suggesting that there is a suspect or an individual responsible in a given hypothesis.
+Statement 2 is saying that a specific hypothesis, in this case regarding a murder, is shared with all players involved. This statement doesn't necessarily imply there is a identified suspect in the hypothesis.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests that a specific individual is believed to be responsible for an act, as per a particular hypothesis. Statement 2, on the other hand, implies a murder hypothesis is shared among all participants in a given context, most likely in a crime-solving game or a real-life investigation.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a certain hypothesis involves a perpetrator whereas statement 2 implies that a specific hypothesis regarding a murder has been shared with all the players.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 simply states that a hypothesis includes a perpetrator, but it does not provide any specific context or details about the nature of the hypothesis, or how it is utilized.  
+Statement 2 gives a very specific context to the hypothesis - it is used as a murder hypothesis in a game and not just consists of a perpetrator, but also a planet and a murder weapon. It also describes the procedure and outcome required for a player to win the game.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 only states that a hypothesis has a perpetrator, but it does not specify the context or the game. Statement 2, however, is clearly about a game and specifies the conditions for winning and the components of the hypothesis.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is indicating that a hypothesis includes a perpetrator, but does not specify any context.
+Statement 2, on the other hand, is providing a detailed situation in a game where a player could win if their murder hypothesis, which must include a planet, a perpetrator, and a murder weapon, is determined to be correct by the server. The context of a game and the additional details makes the meaning significantly different from the first statement.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to the concept of a "perpetrator" being an integral part of a hypothesis, but it doesn't provide any context or details on the nature of the hypothesis. Statement 2, on the other hand, provides a detailed scenario in which a hypothesis consists of a perpetrator (among other elements). It also indicates that the hypothesis is used in the context of a game and requires validation by a server.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply asserts that a hypothesis has a perpetrator, but it does not specify a context or purpose. Statement 2, however, is much more specific and detailed, indicating that in the context of a game, a player can win by correctly guessing a perpetrator, location, and weapon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are discussing two completely different topics. The first is relating to a theory or idea having someone who initiated or caused it. The second is discussing a solution being shared with a group of people, presumably in a game or competition. There is no similarity or equivalence in their meanings.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>No, these two statements aren't conveying the same meaning. The first statement talks about a hypothesis having a perpetrator, which suggests that a certain theory or supposition has someone who is guilty or responsible for something. The second statement is about a solution being shared or broadcast to all players, likely in the context of a game or a problem-solving situation.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing two completely different concepts. The first is about a hypothesis having a cause or originator, while the second is about communicating a solution to all participants involved in a game or activity.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to a possible suspect in a theory or investigative context, whereas statement 2 refers to a concluded solution being shared among all participants, presumably in a game or collaborative context. The two statements might apply to different scenarios and have different meanings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a hypothesis contains a presumed culprit while the second statement suggests that an announcement of a correct hypothesis reveals the details of the murder to all players. They portray different viewpoints related to a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a perpetrator while the second statement outlines a procedure that is undertaken when the correct hypothesis has been identified.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is saying that there is a perpetrator or offender involved in the hypothesis. It does not necessarily imply any action or result from this person being part of the hypothesis.
+Statement 2, however, is suggesting that once the correct hypothesis is revealed, everyone (in this case, the players) is made aware of the conditions surrounding the murder. It is not only confirming the existence of a perpetrator as part of the hypothesis but is focusing more on the sharing of details relating to the murder following the announcement of the correct hypothesis.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests that a hypothesis includes a person who has done something, likely referring to a crime, without providing further information. Statement 2, however, implies that the revelation of a correct hypothesis would lead to players (presumably of a murder mystery game) being given full details about the murder, which could include but is not limited to who the perpetrator is.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a hypothesis in a context, possibly an investigation or study, involves a person who committed an action. Statement 2, however, implies an announcement of a conclusion (hypothesis) in a game or investigation, after which all participants will understand the scenario; in this case, specifically a murder. They discuss different aspects related to a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey different ideas. The first statement talks about a hypothesis having a perpetrator, implying someone responsible for it. The second statement discusses other players being informed about a hypothesis being refuted, requiring proof of the refutation. There is no commonality or equivalence in their meanings.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first one talks about a hypothesis having a perpetrator, while the second one discusses the refutation of a hypothesis and the need to show the evidence for it.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement discusses a hypothesis having a perpetrator or originator, while the second statement deals with the refutation of a hypothesis and the need to provide evidence of this refutation to other players. They are discussing different aspects and scenarios related to a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement suggests that there is a person responsible for creating or proposing the hypothesis. The second statement talks about disproving a hypothesis and the need to present evidence to refute it.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a person responsible for the hypothesis, while statement 2 implies that the hypothesis has been proven wrong and others need to see the evidence of that refutation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a hypothesis has someone who carries it out or commits to it. The second statement talks about the consequences of an incorrect hypothesis in a game scenario. It has more details and conditions and is also context specific.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement speaks about a hypothesis having a perpetrator, while the second statement describes the consequences of an incorrect hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is simply stating that a hypothesis has someone who carried it out or caused it. The second statement is explaining a rule in a game about what happens when a player's hypothesis is incorrect.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement suggests that a hypothesis has someone who put it forward or caused it. The second statement describes a specific scenario or rule within a game that involves hypotheses, but does not refer to a 'perpetrator'.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a hypothesis involves a person who has committed an act or crime. Statement 2, on the other hand, describes the consequences of proposing an incorrect hypothesis in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are referring to two different ideas. Statement 1 is about a hypothesis having a perpetrator and Statement 2 is about the reaction to an irrefutable hypothesis.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a hypothesis having a perpetrator while the second one discusses what happens if a hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement suggests that there's a person responsible for a hypothesis. The second statement, on the other hand, deals with the process of informing all players when a hypothesis cannot be refuted.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a hypothesis having a perpetrator, which implies wrongdoing or blame is involved in some way. The second statement refers to the condition where a hypothesis cannot be denied and all players are informed about it. There is no specific implication of wrongdoing, blame, or a particular person (perpetrator) involved.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a hypothesis involves an individual who committed an act, while Statement 2 implies a procedure of communication when a hypothesis cannot be disproven. They discuss different aspects and consequences of a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the idea that a hypothesis has a perpetrator, or someone who caused or committed something. The second statement, on the other hand, refers to a rule or guideline about communicating information about disproving a hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement refers to a hypothesis having a perpetrator, while the second statement refers to the process in which information about disproving the hypothesis is communicated.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning.
+Statement 1 is suggesting that there's a person or entity responsible for a hypothesis.
+Statement 2 is talking about a specific condition where a player is able to disprove a hypothesis and that information is only shared with the player who inquired about it.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different notions. Statement one is about a hypothesis having a person who initiates or executes it. Statement two is about the communication of information that disproves a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a specific person responsible in the context of a hypothesis, while statement 2 suggests rules of a game or scenario where a player can challenge the validity of a hypothesis and obtain exclusive information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is a simple assertion about a hypothesis having a perpetrator, it doesn't explain the process or any other details. Statement 2 is more complex, explaining a specific circumstance in which questions form a hypothesis that invites others to disprove it using their evidence. The context of the hypothesis in the second statement is also more specific (related to a murder circumstance).</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 is very broad and simply states that a hypothesis involves a perpetrator. Statement 2 is much more specific, discussing the formation of a hypothesis in the context of a murder circumstance and mentioning the involvement of other players and evidence.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 suggests that a hypothesis has a specific person who committed a proposed action or crime. It is a general and abstract statement.
+Statement 2, on the other hand, provides a more detailed context. It explains a specific situation where questions are being utilized to form a hypothesis about a murder circumstance and a perpetrator. It also includes the detail that other players are trying to disprove this hypothesis with their evidence. This statement is a specific situation in, possibly, a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 simply suggests that a hypothesis includes a person who committed an action. Statement 2 is more detailed and speaks specifically to a murder mystery game, implying that a hypothesis is being formed about both the circumstances and the person who committed the murder, and then other players are given the opportunity to disprove it.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. 
+Statement 1 implies that a hypothesis already includes the identification of a perpetrator. Statement 2, however, suggests that questions generate a hypothesis about the murder and the perpetrator, inviting the remaining players to disprove it using their evidence. The second statement involves a speculative process, which is not explicitly referred to in the first statement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a hypothesis has been disproven, while the second statement refers to sharing a specific hypothesis (about a murder) with all players.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement mentions a hypothesis which is refuted, while the second statement communicates a murder hypothesis to all players.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement speaks to a hypothetical scenario being debunked or disproven, while the second statement refers to a specific hypothesis (related to a murder) being shared with a group of players.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a situation where a proposed explanation for something (a hypothesis) has been disproven or rejected. Statement 2, on the other hand, refers to a certain hypothesis (here, presumably one about a murder) being shared with all involved parties, or players.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a hypothesis has been proven false, whereas Statement 2 implies that a specific hypothesis about a murder has been shared with everyone involved in a game or scenario. The implications vary as the first one is about the disproof of a hypothesis, and the second one is about the sharing of information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis being refuted, while the second statement is about a specific game process and probability of winning by making a correct hypothesis.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. While both statements involve a concept of a hypothesis, the contexts and specific details differ.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a hypothesis that has been proven wrong or refuted. The second statement refers to a game scenario where a player wins by correctly guessing a murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are talking about completely different concepts: the first about a scientific analysis process and the second about the rules of a game.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a hypothesis has been proven wrong, while statement 2 implicates a specific process in a game related to a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement pertains to a hypothesis being disproven, and the second statement relates to some sort of solution being shared among all players. They are discussing different topics.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a hypothesis which was negated or disagreed while the second statement talks about sharing a solution with all the players.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a hypothesis being proven wrong, while the second statement refers to a solution being shared with all participants or players. They are discussing completely different subjects.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They refer to completely different concepts. Statement 1 refers to a theory or idea that has been disproved or rejected, while statement 2 refers to an solution or answer being communicated to all participants in a game or activity.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is about a hypothesis being refuted. Statement 2 is about broadcasting a solution to all players.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is discussing a hypothesis that has been disproven or refuted. Statement 2 is discussing a situation where the correct hypothesis is made known and providing additional information about the result of that hypothesis being revealed. They are talking about two different scenarios involving a hypothesis, but they are not equal in meaning.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement discusses a hypothesis being refuted, while the second statement talks about informing all players when the correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is discussing a hypothesis being refuted or proven wrong. The second statement is referring to a scenario in a game or situation where a hypothesis (presumably about a murder) is confirmed to be correct, and all players/individuals are then informed.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a refuted hypothesis, implying a hypothesis that has been proven wrong. The second statement talks about a specific scenario in a game or investigative situation where all players get informed about the circumstances of a murder once the correct hypothesis is announced. These two statements do not share the same meaning.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 involves a hypothesis being refuted or disproved, while statement 2 pertains to information sharing regarding a hypothetical murder case after announcing a correct hypothesis. They refer to very different situations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is claiming that a hypothesis has been refuted, but it does not specify by whom or how the information is communicated. The second statement is more detailed, indicating that other players have been informed that the hypothesis was refuted, and it clarifies that these players need to see the evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply says that a hypothesis has been refuted, but it does not specify who is aware of this fact or whether there is a need for evidence to support the refutation. The second statement provides additional information about who knows about the refuted hypothesis and what needs to happen next (they need to be shown evidence).</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 is saying that a certain hypothesis has a hypothesis that appeared to be false or contradicted. 
+Statement 2, on the other hand, is more about communicating to other players that a certain hypothesis has been disproven or refuted, emphasizing that they need to see the evidence that led to this conclusion.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests that a hypothesis has been disproven by another hypothesis. Statement 2, on the other hand, is about communicating to others that a hypothesis has been disproven, with the additional need to provide the evidence that led to its refutation. Statement 2 does not imply that another hypothesis disproved the original one.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 simply implies that a hypothesis was proven incorrect. Statement 2, on the other hand, adds detail, implying that others are aware that the hypothesis has been refuted but that they need evidence to support the refutation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is much simpler and seems to suggest that one hypothesis is being contradicted by another. The second statement is more specific and incorporates a range of conditions and consequences related to a game. It discusses a hypothetical situation where a hypothesis is incorrect, then some actions occur such as losing the game and not being able to make moves or pose hypotheses, but the player still has to refute hypotheses of others.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply states that a hypothesis has a refuted hypothesis. The second statement, however, explains the consequences of an incorrect hypothesis in a game.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 suggests that a hypothesis contains within it another hypothesis that has been disproven or refuted.
+Statement 2 describes a specific rule within a game regarding incorrect hypotheses, detailing the consequences of making an incorrect hypothesis. It does not necessarily suggest that an incorrect hypothesis contains a disproven hypothesis, but rather that the player must continue disproving other hypotheses.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is simply saying that a hypothesis has been disproven. Statement 2 is explaining the consequences in a game if a hypothesis is proven incorrect.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that there is a hypothesis that has been disproven. Statement 2 explains the consequences in a game if a player's hypothesis is incorrect. The implications are different as the first one only entails proving or disproving a hypothesis, whereas the second involves the effects of an incorrect hypothesis on a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis that has been refuted or proven false. The second statement proposes a condition where a hypothesis cannot be denied, and all players are informed about it. These are two different scenarios with different meanings.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis that has been refuted, while the second statement involves a scenario where a hypothesis cannot be denied and all players are informed about it.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is indicating that a hypothesis has been proven wrong or disproven. The second statement, however, is suggesting that if a hypothesis cannot be disproven or denied, then all players (presumably in a game or experiment) are informed about it. They are dealing with different scenarios.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies a hypothesis is being disproven by another hypothesis. The second statement refers to a situation where a hypothesis cannot be refuted and this information is shared with all involved individuals.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that there is a hypothesis that has been disproven. Statement 2, however, implies communication about a hypothesis; specifically, it suggests that if the hypothesis cannot be refuted, everyone is made aware of it. These two statements imply quite different things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement simply suggests that a hypothesis has been proven incorrect. The second statement provides specific detail about a game-like context in which a player who manages to disprove a hypothesis shares that information solely with the player who inquired about it.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a hypothesis that has been refuted but does not specify who refuted it or who knows about the refutation. The second statement talks about a specific scenario where only the player who can disprove a hypothesis knows about the disproof.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning.
+Statement 1 states that a hypothesis has been disproven or rejected. It talks about a hypothesis being invalidated but provides no information about who is involved in the process or what happens after the hypothesis has been refuted. 
+Statement 2, on the other hand, outlines a specific process regarding a player in a game (or any situation involving multiple participants) disproving a hypothesis. It also adds that the player who disproves the hypothesis is the only one who will receive information about this event. This is very specific and involves interaction and communication between multiple parties, unlike the first statement.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 discusses a hypothesis being refuted or disproven, while the second statement describes a situation where only the player who can disprove a hypothesis receives that information. They involve different scenarios and are not expressing the same concept.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a hypothesis has been proven wrong, while statement 2 suggests a situation in a game where a player disproves a hypothesis and that information is only shared with the person who questioned it. They might be somewhat related, but they do not have identical implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis which has been refuted, that is, disproven or denied. The second statement, however, talks about forming a hypothesis based on questions about a murder circumstance and perpetrator and then inviting other players to disprove it. It's more like an explanation of a process in a game or an investigation.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a rejected or disproven hypothesis. The second statement is referring to formulating a hypothesis for a specific scenario (murder) and inviting others to disprove it. The context and information provided in both statements are different.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. Statement 1 suggests that a hypothesis (a proposed explanation for a phenomenon) has been contradicted or disproven by another hypothesis. Statement 2, on the other hand, describes a situation in which a hypothesis about a murder situation and culprit is proposed, and other players are encouraged to try to disprove it with their evidence. So, while both statements involve hypotheses and disproving them, they are referring to different scenarios and are not equivalent in meaning.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. While both deal with the concept of hypotheses and their refutation, they refer to very different contexts and scenarios. The first statement implies that a hypothesis has been contradicted by another hypothesis. The second statement describes a process often used in mystery games, where a hypothesis is formed about an event and the other players are asked to use their clues to test that hypothesis.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 indicates that a proposed theory (hypothesis) has been disproven. Statement 2, on the other hand, suggests a process in which a theory is proposed regarding a specific situation (in this case, a murder) and is then put to the test for validity.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
